--- a/services/backend/booking_report.xlsx
+++ b/services/backend/booking_report.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Сумма, р.</t>
+          <t>Сумма, руб.</t>
         </is>
       </c>
     </row>
